--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\py_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7303E1-E08A-4E08-A65C-454103AD4B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D387A168-A97F-47F4-AA14-1B1423909B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="4230" windowWidth="28800" windowHeight="15435" xr2:uid="{94640032-E626-427E-85D2-6CEB875092FD}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{3E288698-5B2A-4481-B5BD-A86D1492AAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,36 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
-    <t>group 0</t>
+    <t>nameCL0ZMa4x</t>
   </si>
   <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>group 2</t>
-  </si>
-  <si>
-    <t>group 3</t>
-  </si>
-  <si>
-    <t>group 4</t>
-  </si>
-  <si>
-    <t>group 5</t>
-  </si>
-  <si>
-    <t>group 6</t>
-  </si>
-  <si>
-    <t>group 7</t>
-  </si>
-  <si>
-    <t>group 8</t>
-  </si>
-  <si>
-    <t>group 9</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -412,8 +388,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E184C52F-5382-4BE9-9B69-02E5DB49FFD4}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5A5283-20A3-4A35-A8FF-A37DBF657623}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,42 +407,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\py_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D387A168-A97F-47F4-AA14-1B1423909B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E22399-AC50-4322-9F04-CA1E6BF86CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{3E288698-5B2A-4481-B5BD-A86D1492AAF5}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{F4EFC8BF-4A0B-4CF6-96DB-FA10565FAB92}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>nameCL0ZMa4x</t>
+    <t>name u2</t>
   </si>
   <si>
-    <t>name</t>
+    <t>nameO</t>
+  </si>
+  <si>
+    <t>nameFQny</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5A5283-20A3-4A35-A8FF-A37DBF657623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A969D12B-627E-49A8-BCDD-6D668BC5F91E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -407,7 +410,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
